--- a/src/main/webapp/_custom/documents/포탈 프로그램 목록-V0.1.xlsx
+++ b/src/main/webapp/_custom/documents/포탈 프로그램 목록-V0.1.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse-workspace-gcgf\koreg\src\main\webapp\_custom\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse-workspace-gcgf\portal\src\main\webapp\_custom\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3860A4-1B68-4FA8-B014-50CD37AABC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FE14C60-50DB-40EA-BFB2-FB9F3215566A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00347629-8C0D-4AF7-BB14-08D368C588C8}"/>
+    <workbookView xWindow="-28920" yWindow="-3255" windowWidth="29040" windowHeight="15720" xr2:uid="{00347629-8C0D-4AF7-BB14-08D368C588C8}"/>
   </bookViews>
   <sheets>
     <sheet name="java" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">java!$B$2:$K$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">java!$B$2:$K$74</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="241">
   <si>
     <t>프로그램명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -608,10 +608,6 @@
   </si>
   <si>
     <t>에러 코드 처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>errorProcess</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -927,6 +923,148 @@
   </si>
   <si>
     <t>boardPostPopupDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>codeInsert</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 - 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 - 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>codeUpdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/codeUpdate.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/admin/codeInsert.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT_PORTAL_CODE 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/board/boardInfo.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>boardInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판 - 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CodeController.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>codeTypeList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포탈 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/code/codeTypeList.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 분류 - 리스트 조회 - 그리드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 분류 - 리스트 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 - 리스트 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/code/codeTypeListGrid.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>codeTypeListGrid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/code/codeList.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/code/codeListGrid.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 - 리스트 조회 - 그리드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD_TYPE_ENG_NM
+searchKey
+searchVal
+listViewCount
+start
+length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 분류 영어명
+검색어
+검색 값
+한번에 표시할 페이지 수
+시작 페이지 번호
+개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>errorProcessGet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>errorProcessPost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>errorSsoAuthPost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>errorAuthPost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssoUserViewPost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssoUserEisViewGet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssoUserEisViewPost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSO EIS 로그인 화면 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/app/login/ssoUserEisView.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1364,11 +1502,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95994486-FB38-4764-A632-4EC4EEABD6F6}">
-  <dimension ref="B2:K61"/>
+  <dimension ref="B2:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1628,7 +1764,7 @@
         <v>38</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>41</v>
@@ -1718,112 +1854,108 @@
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>155</v>
+        <v>13</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>154</v>
+        <v>21</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
+        <v>213</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>155</v>
+        <v>13</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>154</v>
+      <c r="E15" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>210</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-    </row>
-    <row r="16" spans="2:11" ht="94.5" x14ac:dyDescent="0.3">
+        <v>212</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="I15" s="4"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>159</v>
+        <v>150</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="5"/>
     </row>
-    <row r="17" spans="2:11" ht="94.5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>159</v>
+        <v>150</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -1833,22 +1965,22 @@
         <v>55</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>162</v>
+        <v>216</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>165</v>
+        <v>217</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>164</v>
+        <v>215</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>41</v>
@@ -1856,30 +1988,30 @@
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:11" ht="94.5" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C19" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>165</v>
-      </c>
       <c r="G19" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>41</v>
+        <v>166</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -1889,109 +2021,109 @@
         <v>55</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H20" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I20" s="6" t="s">
         <v>158</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>159</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
     </row>
-    <row r="21" spans="2:11" ht="27" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="H21" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>176</v>
+        <v>163</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
     </row>
-    <row r="22" spans="2:11" ht="27" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="I22" s="4" t="s">
-        <v>176</v>
+        <v>163</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
     </row>
-    <row r="23" spans="2:11" ht="27" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:11" ht="94.5" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>176</v>
+        <v>168</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>158</v>
       </c>
       <c r="J23" s="5"/>
       <c r="K23" s="5"/>
@@ -2001,25 +2133,25 @@
         <v>55</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="H24" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="I24" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="I24" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="J24" s="5"/>
       <c r="K24" s="5"/>
@@ -2029,25 +2161,25 @@
         <v>55</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="H25" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="I25" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
@@ -2057,24 +2189,26 @@
         <v>55</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="I26" s="5"/>
+        <v>176</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="J26" s="5"/>
       <c r="K26" s="5"/>
     </row>
@@ -2083,24 +2217,26 @@
         <v>55</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="I27" s="5"/>
+        <v>176</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="J27" s="5"/>
       <c r="K27" s="5"/>
     </row>
@@ -2109,78 +2245,76 @@
         <v>55</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="H28" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="I28" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="J28" s="5"/>
       <c r="K28" s="5"/>
     </row>
-    <row r="29" spans="2:11" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:11" ht="27" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>198</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="I29" s="5"/>
       <c r="J29" s="5"/>
       <c r="K29" s="5"/>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:11" ht="27" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>10</v>
+        <v>186</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>190</v>
       </c>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
@@ -2191,339 +2325,353 @@
         <v>55</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="H31" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="I31" s="4" t="s">
         <v>175</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>176</v>
       </c>
       <c r="J31" s="5"/>
       <c r="K31" s="5"/>
     </row>
-    <row r="32" spans="2:11" ht="27" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:11" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="J32" s="5"/>
       <c r="K32" s="5"/>
     </row>
-    <row r="33" spans="2:11" ht="27" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="I33" s="4" t="s">
-        <v>176</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="5"/>
       <c r="J33" s="5"/>
       <c r="K33" s="5"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" ht="27" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D34" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>134</v>
+        <v>203</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>130</v>
-      </c>
-      <c r="H34" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>132</v>
+        <v>202</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="J34" s="5"/>
       <c r="K34" s="5"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" ht="27" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>32</v>
+        <v>154</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>140</v>
+        <v>204</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I35" s="5"/>
+        <v>202</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="J35" s="5"/>
       <c r="K35" s="5"/>
     </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" ht="27" x14ac:dyDescent="0.3">
       <c r="B36" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>32</v>
+        <v>154</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>141</v>
+        <v>207</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I36" s="5"/>
+        <v>206</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>175</v>
+      </c>
       <c r="J36" s="5"/>
       <c r="K36" s="5"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" ht="67.5" x14ac:dyDescent="0.3">
       <c r="B37" s="3" t="s">
-        <v>56</v>
+        <v>218</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>135</v>
+        <v>220</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>142</v>
+        <v>219</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I37" s="5"/>
+        <v>223</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I37" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="J37" s="5"/>
       <c r="K37" s="5"/>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:11" ht="67.5" x14ac:dyDescent="0.3">
       <c r="B38" s="3" t="s">
-        <v>56</v>
+        <v>218</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>135</v>
+        <v>220</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>145</v>
+        <v>226</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I38" s="5"/>
+        <v>222</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:11" ht="81" x14ac:dyDescent="0.3">
       <c r="B39" s="3" t="s">
-        <v>56</v>
+        <v>218</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>135</v>
+        <v>220</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="H39" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I39" s="5"/>
+        <v>224</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="I39" s="6" t="s">
+        <v>231</v>
+      </c>
       <c r="J39" s="5"/>
       <c r="K39" s="5"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:11" ht="81" x14ac:dyDescent="0.3">
       <c r="B40" s="3" t="s">
-        <v>56</v>
+        <v>218</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>135</v>
+        <v>220</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I40" s="5"/>
+        <v>229</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>231</v>
+      </c>
       <c r="J40" s="5"/>
       <c r="K40" s="5"/>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B41" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>101</v>
+        <v>232</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I41" s="5"/>
+        <v>131</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="J41" s="5"/>
       <c r="K41" s="5"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B42" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>105</v>
+        <v>233</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="H42" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I42" s="5"/>
+        <v>131</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="J42" s="5"/>
       <c r="K42" s="5"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B43" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D43" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="H43" s="5" t="s">
         <v>10</v>
@@ -2534,48 +2682,46 @@
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B44" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D44" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>111</v>
+        <v>234</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>10</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="H44" s="5"/>
       <c r="I44" s="5"/>
       <c r="J44" s="5"/>
       <c r="K44" s="5"/>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B45" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D45" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>112</v>
+        <v>140</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="H45" s="5" t="s">
         <v>10</v>
@@ -2586,48 +2732,46 @@
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B46" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D46" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>113</v>
+        <v>235</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="H46" s="5" t="s">
-        <v>10</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="H46" s="5"/>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B47" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>115</v>
+        <v>143</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="H47" s="5" t="s">
         <v>10</v>
@@ -2636,80 +2780,76 @@
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
     </row>
-    <row r="48" spans="2:11" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B48" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>119</v>
+        <v>144</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G48" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="I48" s="6" t="s">
-        <v>121</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I48" s="5"/>
       <c r="J48" s="5"/>
       <c r="K48" s="5"/>
     </row>
-    <row r="49" spans="2:11" ht="27" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B49" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="I49" s="6" t="s">
-        <v>126</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
     </row>
     <row r="50" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B50" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="H50" s="5" t="s">
         <v>10</v>
@@ -2720,22 +2860,22 @@
     </row>
     <row r="51" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B51" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D51" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H51" s="5" t="s">
         <v>10</v>
@@ -2746,22 +2886,22 @@
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B52" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>21</v>
+        <v>95</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="H52" s="5" t="s">
         <v>10</v>
@@ -2772,22 +2912,22 @@
     </row>
     <row r="53" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B53" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>32</v>
+        <v>95</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>88</v>
+        <v>236</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>10</v>
@@ -2798,22 +2938,22 @@
     </row>
     <row r="54" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B54" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>21</v>
+        <v>95</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>89</v>
+        <v>237</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>87</v>
+        <v>239</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>97</v>
+        <v>240</v>
       </c>
       <c r="H54" s="5" t="s">
         <v>10</v>
@@ -2824,22 +2964,22 @@
     </row>
     <row r="55" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B55" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>32</v>
+        <v>95</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>92</v>
+        <v>238</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>90</v>
+        <v>239</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>99</v>
+        <v>240</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>10</v>
@@ -2850,22 +2990,22 @@
     </row>
     <row r="56" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B56" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>10</v>
@@ -2876,22 +3016,22 @@
     </row>
     <row r="57" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B57" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>10</v>
@@ -2900,120 +3040,462 @@
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
     </row>
-    <row r="58" spans="2:11" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B58" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>68</v>
+        <v>95</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>77</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I58" s="5"/>
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
     </row>
-    <row r="59" spans="2:11" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B59" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D59" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D59" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I59" s="6" t="s">
-        <v>77</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I59" s="5"/>
       <c r="J59" s="5"/>
       <c r="K59" s="5"/>
     </row>
-    <row r="60" spans="2:11" ht="27" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B60" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D60" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D60" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="I60" s="6" t="s">
-        <v>81</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
     </row>
-    <row r="61" spans="2:11" ht="67.5" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:11" ht="40.5" x14ac:dyDescent="0.3">
       <c r="B61" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D61" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D61" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>64</v>
+        <v>118</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="I61" s="6" t="s">
-        <v>66</v>
+        <v>121</v>
       </c>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
     </row>
+    <row r="62" spans="2:11" ht="27" x14ac:dyDescent="0.3">
+      <c r="B62" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="I62" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B63" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B64" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="5"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B65" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B66" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="5"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B67" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B68" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="5"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B69" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="5"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B70" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+    </row>
+    <row r="71" spans="2:11" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B71" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I71" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J71" s="5"/>
+      <c r="K71" s="5"/>
+    </row>
+    <row r="72" spans="2:11" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="B72" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I72" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J72" s="5"/>
+      <c r="K72" s="5"/>
+    </row>
+    <row r="73" spans="2:11" ht="27" x14ac:dyDescent="0.3">
+      <c r="B73" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I73" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+    </row>
+    <row r="74" spans="2:11" ht="67.5" x14ac:dyDescent="0.3">
+      <c r="B74" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="I74" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+    </row>
   </sheetData>
-  <autoFilter ref="B2:K61" xr:uid="{95994486-FB38-4764-A632-4EC4EEABD6F6}"/>
+  <autoFilter ref="B2:K74" xr:uid="{95994486-FB38-4764-A632-4EC4EEABD6F6}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
